--- a/DOC/単体テスト/EMSM_単体テストエビデンス_-社員情報リスト.xlsx
+++ b/DOC/単体テスト/EMSM_単体テストエビデンス_-社員情報リスト.xlsx
@@ -10,11 +10,9 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC3432C-A8AE-46D0-B05B-6AB70E7BD0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="表紙" sheetId="2" r:id="rId1"/>
-    <sheet name="履歴一覧" sheetId="6" r:id="rId2"/>
     <sheet name="No1.初期表示" sheetId="7" r:id="rId3"/>
     <sheet name="No.2社員リスト" sheetId="8" r:id="rId4"/>
     <sheet name="No.3検索" sheetId="9" r:id="rId13"/>
@@ -29,15 +27,24 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_ＩＯ２" localSheetId="0" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="HH" localSheetId="0" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="HTML_Control" localSheetId="0" hidden="true">{"'ﾒ画1 (2)'!$E$23"}</definedName>
+    <definedName name="tttt" localSheetId="0" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="wrn.ORIG." localSheetId="0" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="あ" localSheetId="0" hidden="true">{"'ﾒ画1 (2)'!$E$23"}</definedName>
+    <definedName name="ああ" localSheetId="0" hidden="true">{"'ﾒ画1 (2)'!$E$23"}</definedName>
+    <definedName name="スケジュール" localSheetId="0" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="スケジュールORG" localSheetId="0" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="可否" localSheetId="0">[4]定数!$A$2:$A$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙'!A1:X44</definedName>
     <definedName name="詳細有り無しリスト">[5]リスト!$C$1:$C$2</definedName>
     <definedName name="質問者リスト">[5]リスト!$A$1:$A$10</definedName>
-    <definedName name="_ＩＯ２" localSheetId="0" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="_ＩＯ２" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="__ＩＯ２" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="__a1">#REF!</definedName>
     <definedName name="_a1">#REF!</definedName>
     <definedName name="DB属性">[1]CODE!$H$3:$H$13</definedName>
-    <definedName name="HH" localSheetId="0" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="HH" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="HTML10_1" hidden="true">"[個人データ.xls]通信教育!$A$1:$F$122"</definedName>
     <definedName name="HTML10_10" hidden="true">""</definedName>
@@ -688,7 +695,6 @@
     <definedName name="HTML9_8" hidden="true">"97/06/20"</definedName>
     <definedName name="HTML9_9" hidden="true">"野田美由希"</definedName>
     <definedName name="HTML_CodePage" hidden="true">932</definedName>
-    <definedName name="HTML_Control" localSheetId="0" hidden="true">{"'ﾒ画1 (2)'!$E$23"}</definedName>
     <definedName name="HTML_Control" hidden="true">{"'ﾒ画1 (2)'!$E$23"}</definedName>
     <definedName name="HTML_Description" hidden="true">""</definedName>
     <definedName name="HTML_Email" hidden="true">""</definedName>
@@ -709,24 +715,16 @@
     <definedName name="SSGAIIRAI_3">#REF!</definedName>
     <definedName name="STGAIIRAI_3">#REF!</definedName>
     <definedName name="T_TANKA_F">#REF!</definedName>
-    <definedName name="tttt" localSheetId="0" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="tttt" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
-    <definedName name="wrn.ORIG." localSheetId="0" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="wrn.ORIG." hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintArea" hidden="true">#REF!</definedName>
     <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintTitles" hidden="true">#REF!</definedName>
-    <definedName name="あ" localSheetId="0" hidden="true">{"'ﾒ画1 (2)'!$E$23"}</definedName>
     <definedName name="あ" hidden="true">{"'ﾒ画1 (2)'!$E$23"}</definedName>
-    <definedName name="ああ" localSheetId="0" hidden="true">{"'ﾒ画1 (2)'!$E$23"}</definedName>
     <definedName name="ああ" hidden="true">{"'ﾒ画1 (2)'!$E$23"}</definedName>
-    <definedName name="スケジュール" localSheetId="0" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="スケジュール" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
-    <definedName name="スケジュールORG" localSheetId="0" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="スケジュールORG" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="ソフト名">[3]定数!$B$2:$B$6</definedName>
-    <definedName name="可否" localSheetId="0">[4]定数!$A$2:$A$4</definedName>
     <definedName name="可否">[3]定数!$A$2:$A$4</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙'!A1:X44</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -3738,64 +3736,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name=""/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2762250" y="285750"/>
-          <a:ext cx="628650" cy="1266825"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="none"/>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4153,671 +4093,10 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D026AA-4044-478E-B386-34FF47EBB38E}">
-  <sheetPr codeName="Sheet1">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:X54"/>
-  <sheetViews>
-    <sheetView showGridLines="false" view="pageBreakPreview" topLeftCell="H6" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="12" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="5.25" style="2"/>
-    <col min="2" max="2" width="5.25" style="2"/>
-    <col min="3" max="3" width="5.25" style="2"/>
-    <col min="4" max="4" width="5.25" style="2"/>
-    <col min="5" max="5" width="5.25" style="2"/>
-    <col min="6" max="6" width="5.25" style="2"/>
-    <col min="7" max="7" width="5.25" style="2"/>
-    <col min="8" max="8" width="5.25" style="2"/>
-    <col min="9" max="9" width="5.25" style="2"/>
-    <col min="10" max="10" width="5.25" style="2"/>
-    <col min="11" max="11" width="5.25" style="2"/>
-    <col min="12" max="12" width="5.25" style="2"/>
-    <col min="13" max="13" width="5.25" style="2"/>
-    <col min="14" max="14" width="5.25" style="2"/>
-    <col min="15" max="15" width="5.25" style="2"/>
-    <col min="16" max="16" width="5.25" style="2"/>
-    <col min="17" max="17" width="5.25" style="2"/>
-    <col min="18" max="18" width="5.25" style="2"/>
-    <col min="19" max="19" width="5.25" style="2"/>
-    <col min="20" max="20" width="5.25" style="2"/>
-    <col min="21" max="21" width="5.25" style="2"/>
-    <col min="22" max="22" width="5.25" style="1"/>
-    <col min="23" max="23" width="5.25" style="2"/>
-    <col min="24" max="16384" width="5.25" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1" s="3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="11"/>
-    </row>
-    <row r="2" customFormat="1" s="3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="10"/>
-      <c r="X2" s="7"/>
-    </row>
-    <row r="3" customFormat="1" s="3">
-      <c r="A3" s="8"/>
-      <c r="X3" s="7"/>
-    </row>
-    <row r="4" customFormat="1" s="3">
-      <c r="A4" s="8"/>
-      <c r="X4" s="7"/>
-    </row>
-    <row r="5" customFormat="1" s="3">
-      <c r="A5" s="8"/>
-      <c r="X5" s="7"/>
-    </row>
-    <row r="6" customFormat="1" s="3">
-      <c r="A6" s="8"/>
-      <c r="X6" s="7"/>
-    </row>
-    <row r="7" customFormat="1" s="3">
-      <c r="A7" s="8"/>
-      <c r="X7" s="7"/>
-    </row>
-    <row r="8" customFormat="1" s="3">
-      <c r="A8" s="8"/>
-      <c r="X8" s="7"/>
-    </row>
-    <row r="9" customFormat="1" s="3">
-      <c r="A9" s="8"/>
-      <c r="X9" s="7"/>
-    </row>
-    <row r="10" customFormat="1" s="3">
-      <c r="A10" s="8"/>
-      <c r="X10" s="7"/>
-    </row>
-    <row r="11" customFormat="1" s="3">
-      <c r="A11" s="8"/>
-      <c r="X11" s="7"/>
-    </row>
-    <row r="12" customFormat="1" s="3">
-      <c r="A12" s="8"/>
-      <c r="X12" s="7"/>
-    </row>
-    <row r="13" customFormat="1" s="3">
-      <c r="A13" s="8"/>
-      <c r="X13" s="7"/>
-    </row>
-    <row r="14" ht="15" customFormat="1" s="3">
-      <c r="A14" s="8"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="X14" s="7"/>
-    </row>
-    <row r="15" customHeight="1" ht="21" customFormat="1" s="3">
-      <c r="A15" s="8"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="21"/>
-      <c r="X15" s="7"/>
-    </row>
-    <row r="16" ht="30" customFormat="1" s="3">
-      <c r="A16" s="8"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="22"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="X16" s="7"/>
-    </row>
-    <row r="17" ht="15" customFormat="1" s="3">
-      <c r="A17" s="8"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="X17" s="7"/>
-    </row>
-    <row r="18" ht="15" customFormat="1" s="3">
-      <c r="A18" s="8"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="59"/>
-      <c r="X18" s="7"/>
-    </row>
-    <row r="19" ht="15" customFormat="1" s="3">
-      <c r="A19" s="8"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="62"/>
-      <c r="X19" s="7"/>
-    </row>
-    <row r="20" ht="15" customFormat="1" s="3">
-      <c r="A20" s="8"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="65"/>
-      <c r="X20" s="7"/>
-    </row>
-    <row r="21" ht="15" customFormat="1" s="3">
-      <c r="A21" s="8"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="X21" s="7"/>
-    </row>
-    <row r="22" ht="18" customFormat="1" s="3">
-      <c r="A22" s="8"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="67"/>
-      <c r="X22" s="7"/>
-    </row>
-    <row r="23" ht="15" customFormat="1" s="3">
-      <c r="A23" s="8"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="70"/>
-      <c r="X23" s="7"/>
-    </row>
-    <row r="24" ht="15" customFormat="1" s="3">
-      <c r="A24" s="8"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="73"/>
-      <c r="X24" s="7"/>
-    </row>
-    <row r="25" ht="15" customFormat="1" s="3">
-      <c r="A25" s="8"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="21"/>
-      <c r="X25" s="7"/>
-    </row>
-    <row r="26" customFormat="1" s="3">
-      <c r="A26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="X26" s="7"/>
-    </row>
-    <row r="27" customFormat="1" s="3">
-      <c r="A27" s="8"/>
-      <c r="X27" s="7"/>
-    </row>
-    <row r="28" customFormat="1" s="3">
-      <c r="A28" s="8"/>
-      <c r="X28" s="7"/>
-    </row>
-    <row r="29" customFormat="1" s="3">
-      <c r="A29" s="8"/>
-      <c r="X29" s="7"/>
-    </row>
-    <row r="30" customFormat="1" s="3">
-      <c r="A30" s="8"/>
-      <c r="X30" s="7"/>
-    </row>
-    <row r="31" customFormat="1" s="3">
-      <c r="A31" s="8"/>
-      <c r="X31" s="7"/>
-    </row>
-    <row r="32" customFormat="1" s="3">
-      <c r="A32" s="8"/>
-      <c r="X32" s="7"/>
-    </row>
-    <row r="33" customFormat="1" s="3">
-      <c r="A33" s="8"/>
-      <c r="K33" s="2"/>
-      <c r="X33" s="7"/>
-    </row>
-    <row r="34" customFormat="1" s="3">
-      <c r="A34" s="8"/>
-      <c r="K34" s="2"/>
-      <c r="X34" s="7"/>
-    </row>
-    <row r="35" customFormat="1" s="3">
-      <c r="A35" s="8"/>
-      <c r="K35" s="2"/>
-      <c r="X35" s="7"/>
-    </row>
-    <row r="36" customFormat="1" s="3">
-      <c r="A36" s="8"/>
-      <c r="X36" s="7"/>
-    </row>
-    <row r="37" customFormat="1" s="3">
-      <c r="A37" s="8"/>
-      <c r="X37" s="7"/>
-    </row>
-    <row r="38" customFormat="1" s="3">
-      <c r="A38" s="8"/>
-      <c r="K38" s="2"/>
-      <c r="X38" s="7"/>
-    </row>
-    <row r="39" customFormat="1" s="3">
-      <c r="A39" s="8"/>
-      <c r="X39" s="7"/>
-    </row>
-    <row r="40" customFormat="1" s="3">
-      <c r="A40" s="8"/>
-      <c r="X40" s="7"/>
-    </row>
-    <row r="41" customFormat="1" s="3">
-      <c r="A41" s="8"/>
-      <c r="X41" s="7"/>
-    </row>
-    <row r="42" customFormat="1" s="3">
-      <c r="A42" s="8"/>
-      <c r="X42" s="7"/>
-    </row>
-    <row r="43" customFormat="1" s="3">
-      <c r="A43" s="8"/>
-      <c r="X43" s="7"/>
-    </row>
-    <row r="44" customFormat="1" s="3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="4"/>
-    </row>
-    <row r="49">
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50">
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51">
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52">
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-    </row>
-    <row r="53">
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-    </row>
-    <row r="54">
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="H15:Q15"/>
-    <mergeCell ref="G18:R18"/>
-    <mergeCell ref="G19:R20"/>
-    <mergeCell ref="G22:R22"/>
-    <mergeCell ref="G23:R24"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="0.43307086614173201" header="0.39370078740157499" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B017DC-4CD0-47CF-A271-B338C8DC7F2A}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:E16"/>
-  <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10" activeCellId="0"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.75" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="3.125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="58.625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="8.25" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="2">
-      <c r="B2" s="17"/>
-      <c r="C2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="19">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="20">
-        <v>45247</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A31">
+    <sheetView workbookViewId="0" topLeftCell="A16">
       <selection activeCell="K62" activeCellId="0" sqref="K62"/>
     </sheetView>
   </sheetViews>
@@ -4847,7 +4126,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A4">
+    <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="K29" activeCellId="0" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -4875,7 +4154,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
+    <sheetView workbookViewId="0" topLeftCell="A37" tabSelected="1">
       <selection activeCell="J52" activeCellId="0" sqref="J52"/>
     </sheetView>
   </sheetViews>
@@ -4915,8 +4194,8 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A19" tabSelected="1">
-      <selection activeCell="B29" activeCellId="0" sqref="B29"/>
+    <sheetView workbookViewId="0" topLeftCell="A37">
+      <selection activeCell="Y40" activeCellId="0" sqref="Y40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4946,7 +4225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="P32" activeCellId="0" sqref="P32"/>
+      <selection activeCell="I33" activeCellId="0" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/DOC/単体テスト/EMSM_単体テストエビデンス_-社員情報リスト.xlsx
+++ b/DOC/単体テスト/EMSM_単体テストエビデンス_-社員情報リスト.xlsx
@@ -4154,7 +4154,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A37" tabSelected="1">
+    <sheetView workbookViewId="0" topLeftCell="A34" tabSelected="1">
       <selection activeCell="J52" activeCellId="0" sqref="J52"/>
     </sheetView>
   </sheetViews>
